--- a/ResultadoEleicoesDistritos/VISEU_PENEDONO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_PENEDONO.xlsx
@@ -597,64 +597,64 @@
         <v>839</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T2" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
